--- a/0050_nav.xlsx
+++ b/0050_nav.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\CCclub\nw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B239"/>
+  <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1724,535 +1724,535 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="B167">
-        <v>116.97</v>
+        <v>117.34</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="B168">
-        <v>117.6</v>
+        <v>116.97</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="B169">
-        <v>117.48</v>
+        <v>117.6</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B170">
-        <v>116.07</v>
+        <v>117.48</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="B171">
-        <v>115.81</v>
+        <v>116.07</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="B172">
-        <v>116.33</v>
+        <v>115.81</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B173">
-        <v>118.18</v>
+        <v>116.33</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>45037</v>
+        <v>45040</v>
       </c>
       <c r="B174">
-        <v>118.41</v>
+        <v>118.18</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="B175">
-        <v>118.88</v>
+        <v>118.41</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B176">
-        <v>118.83</v>
+        <v>118.88</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B177">
-        <v>119.79</v>
+        <v>118.83</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="B178">
-        <v>120.65</v>
+        <v>119.79</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>45030</v>
+        <v>45033</v>
       </c>
       <c r="B179">
-        <v>120.47</v>
+        <v>120.65</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="B180">
-        <v>119.33</v>
+        <v>120.47</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="B181">
-        <v>120.56</v>
+        <v>119.33</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="B182">
-        <v>120.86</v>
+        <v>120.56</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="B183">
-        <v>120.95</v>
+        <v>120.86</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>45023</v>
+        <v>45026</v>
       </c>
       <c r="B184">
-        <v>120.97</v>
+        <v>120.95</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="B185">
-        <v>120.9</v>
+        <v>120.97</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>45016</v>
+        <v>45022</v>
       </c>
       <c r="B186">
-        <v>121.66</v>
+        <v>120.9</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B187">
-        <v>121.64</v>
+        <v>121.66</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="B188">
-        <v>120.97</v>
+        <v>121.64</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B189">
-        <v>120.26</v>
+        <v>120.97</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="B190">
-        <v>121.27</v>
+        <v>120.26</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>45009</v>
+        <v>45012</v>
       </c>
       <c r="B191">
-        <v>122.41</v>
+        <v>121.27</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B192">
-        <v>122.1</v>
+        <v>122.41</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="B193">
-        <v>121.13</v>
+        <v>122.1</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="B194">
-        <v>118.75</v>
+        <v>121.13</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>45005</v>
+        <v>45006</v>
       </c>
       <c r="B195">
-        <v>118.02</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="B196">
-        <v>118.83</v>
+        <v>118.02</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B197">
-        <v>116.73</v>
+        <v>118.83</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B198">
-        <v>117.54</v>
+        <v>116.73</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B199">
-        <v>117.32</v>
+        <v>117.54</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B200">
-        <v>118.91</v>
+        <v>117.32</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B201">
-        <v>118.41</v>
+        <v>118.91</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B202">
-        <v>120.23</v>
+        <v>118.41</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B203">
-        <v>120.5</v>
+        <v>120.23</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B204">
-        <v>121.1</v>
+        <v>120.5</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B205">
-        <v>120.34</v>
+        <v>121.1</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B206">
-        <v>119.13</v>
+        <v>120.34</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B207">
-        <v>119.32</v>
+        <v>119.13</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B208">
-        <v>119.64</v>
+        <v>119.32</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>44981</v>
+        <v>44986</v>
       </c>
       <c r="B209">
-        <v>118.09</v>
+        <v>119.64</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B210">
-        <v>119.34</v>
+        <v>118.09</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="B211">
-        <v>117.63</v>
+        <v>119.34</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B212">
-        <v>119.04</v>
+        <v>117.63</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="B213">
-        <v>119.15</v>
+        <v>119.04</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="B214">
-        <v>118.9</v>
+        <v>119.15</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="B215">
-        <v>119.94</v>
+        <v>118.9</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B216">
-        <v>119.29</v>
+        <v>119.94</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="B217">
-        <v>121.91</v>
+        <v>119.29</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="B218">
-        <v>121</v>
+        <v>121.91</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B219">
-        <v>121.48</v>
+        <v>121</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="B220">
-        <v>120.98</v>
+        <v>121.48</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="B221">
-        <v>121.09</v>
+        <v>120.98</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B222">
-        <v>118.7</v>
+        <v>121.09</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="B223">
-        <v>118.98</v>
+        <v>118.7</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>44960</v>
+        <v>44963</v>
       </c>
       <c r="B224">
-        <v>121.36</v>
+        <v>118.98</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="B225">
-        <v>121.22</v>
+        <v>121.36</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="B226">
-        <v>119.71</v>
+        <v>121.22</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="B227">
-        <v>118.35</v>
+        <v>119.71</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="B228">
-        <v>121.46</v>
+        <v>118.35</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>44943</v>
+        <v>44956</v>
       </c>
       <c r="B229">
-        <v>118.21</v>
+        <v>121.46</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B230">
-        <v>118.38</v>
+        <v>118.21</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>44939</v>
+        <v>44942</v>
       </c>
       <c r="B231">
-        <v>117.38</v>
+        <v>118.38</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="B232">
-        <v>116.01</v>
+        <v>117.38</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B233">
         <v>116.01</v>
@@ -2260,55 +2260,64 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B234">
-        <v>116.45</v>
+        <v>116.01</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B235">
-        <v>115.78</v>
+        <v>116.45</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="B236">
-        <v>111.82</v>
+        <v>115.78</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>44931</v>
+        <v>44932</v>
       </c>
       <c r="B237">
-        <v>111.23</v>
+        <v>111.82</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="B238">
-        <v>109.99</v>
+        <v>111.23</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
+        <v>44930</v>
+      </c>
+      <c r="B239">
+        <v>109.99</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
         <v>44929</v>
       </c>
-      <c r="B239">
+      <c r="B240">
         <v>110.52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
